--- a/20221111_A社予実データ.xlsx
+++ b/20221111_A社予実データ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10180424\Documents\20220422　DX関連\森中さんとのMTG内容\20221108_森中さんへの提供資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\DXP事業検討チーム（外部共有）\00_定例MTG\221111\森中さん提供データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8279088F-A4C9-4A8D-9FCD-1C63A3E070E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A45F1-0969-4D9A-B9C1-C5E16FFC0014}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{011205BD-501A-4CE9-AB96-174DAA4380F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{011205BD-501A-4CE9-AB96-174DAA4380F0}"/>
   </bookViews>
   <sheets>
     <sheet name="A社　実績値input" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="2">
   <si>
     <t>-</t>
   </si>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -91,12 +99,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -106,8 +117,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り 3" xfId="1" xr:uid="{556BACE7-6E1B-40B4-A317-702BF480872E}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1414,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA39B93-B232-4C11-AACA-B8BD7F909B94}">
-  <dimension ref="B2:C38"/>
+  <dimension ref="B2:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1696,7 +1711,7 @@
         <v>202101</v>
       </c>
       <c r="C36" s="2">
-        <v>336400</v>
+        <v>404400</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
@@ -1704,7 +1719,7 @@
         <v>202102</v>
       </c>
       <c r="C37" s="2">
-        <v>248000</v>
+        <v>334400</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
@@ -1712,22 +1727,121 @@
         <v>202103</v>
       </c>
       <c r="C38" s="2">
-        <v>138000</v>
+        <v>209600</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="1">
+        <v>202104</v>
+      </c>
+      <c r="C39" s="2">
+        <v>341200</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
+        <v>202105</v>
+      </c>
+      <c r="C40" s="2">
+        <v>369200</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
+        <v>202106</v>
+      </c>
+      <c r="C41" s="2">
+        <v>348000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <v>202107</v>
+      </c>
+      <c r="C42" s="2">
+        <v>203600</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <v>202108</v>
+      </c>
+      <c r="C43" s="2">
+        <v>291600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <v>202109</v>
+      </c>
+      <c r="C44" s="2">
+        <v>162400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <v>202110</v>
+      </c>
+      <c r="C45" s="2">
+        <v>241600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <v>202111</v>
+      </c>
+      <c r="C46" s="2">
+        <v>268600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <v>202112</v>
+      </c>
+      <c r="C47" s="2">
+        <v>236000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <v>202201</v>
+      </c>
+      <c r="C48" s="2">
+        <v>325600</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <v>202202</v>
+      </c>
+      <c r="C49" s="2">
+        <v>282000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <v>202203</v>
+      </c>
+      <c r="C50" s="2">
+        <v>330000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3BD92F-080B-4C57-8BDD-0A841A15D63A}">
-  <dimension ref="B2:N38"/>
+  <dimension ref="B2:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3110,29 +3224,29 @@
       <c r="F35" s="2">
         <v>268800</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>0</v>
+      <c r="G35" s="2">
+        <v>325900</v>
+      </c>
+      <c r="H35" s="2">
+        <v>325500</v>
+      </c>
+      <c r="I35" s="2">
+        <v>327900</v>
+      </c>
+      <c r="J35" s="2">
+        <v>292500</v>
+      </c>
+      <c r="K35" s="2">
+        <v>292900</v>
+      </c>
+      <c r="L35" s="2">
+        <v>292500</v>
+      </c>
+      <c r="M35" s="2">
+        <v>293900</v>
+      </c>
+      <c r="N35" s="2">
+        <v>293500</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.4">
@@ -3148,32 +3262,32 @@
       <c r="E36" s="2">
         <v>310800</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>0</v>
+      <c r="F36" s="2">
+        <v>325900</v>
+      </c>
+      <c r="G36" s="2">
+        <v>325500</v>
+      </c>
+      <c r="H36" s="2">
+        <v>327900</v>
+      </c>
+      <c r="I36" s="2">
+        <v>292500</v>
+      </c>
+      <c r="J36" s="2">
+        <v>292900</v>
+      </c>
+      <c r="K36" s="2">
+        <v>292500</v>
+      </c>
+      <c r="L36" s="2">
+        <v>293900</v>
+      </c>
+      <c r="M36" s="2">
+        <v>293500</v>
+      </c>
+      <c r="N36" s="2">
+        <v>293900</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.4">
@@ -3186,35 +3300,35 @@
       <c r="D37" s="2">
         <v>326800</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>0</v>
+      <c r="E37" s="2">
+        <v>325900</v>
+      </c>
+      <c r="F37" s="2">
+        <v>325500</v>
+      </c>
+      <c r="G37" s="2">
+        <v>327900</v>
+      </c>
+      <c r="H37" s="2">
+        <v>292500</v>
+      </c>
+      <c r="I37" s="2">
+        <v>292900</v>
+      </c>
+      <c r="J37" s="2">
+        <v>292500</v>
+      </c>
+      <c r="K37" s="2">
+        <v>293900</v>
+      </c>
+      <c r="L37" s="2">
+        <v>293500</v>
+      </c>
+      <c r="M37" s="2">
+        <v>293900</v>
+      </c>
+      <c r="N37" s="2">
+        <v>305500</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.4">
@@ -3224,43 +3338,482 @@
       <c r="C38" s="2">
         <v>281200</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>0</v>
+      <c r="D38" s="2">
+        <v>325900</v>
+      </c>
+      <c r="E38" s="2">
+        <v>325500</v>
+      </c>
+      <c r="F38" s="2">
+        <v>327900</v>
+      </c>
+      <c r="G38" s="2">
+        <v>292500</v>
+      </c>
+      <c r="H38" s="2">
+        <v>292900</v>
+      </c>
+      <c r="I38" s="2">
+        <v>292500</v>
+      </c>
+      <c r="J38" s="2">
+        <v>293900</v>
+      </c>
+      <c r="K38" s="2">
+        <v>293500</v>
+      </c>
+      <c r="L38" s="2">
+        <v>293900</v>
+      </c>
+      <c r="M38" s="2">
+        <v>305500</v>
+      </c>
+      <c r="N38" s="2">
+        <v>305900</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B39" s="1">
+        <v>202104</v>
+      </c>
+      <c r="C39" s="2">
+        <v>396400</v>
+      </c>
+      <c r="D39" s="2">
+        <v>335500</v>
+      </c>
+      <c r="E39" s="2">
+        <v>314900</v>
+      </c>
+      <c r="F39" s="2">
+        <v>282500</v>
+      </c>
+      <c r="G39" s="2">
+        <v>282900</v>
+      </c>
+      <c r="H39" s="2">
+        <v>282500</v>
+      </c>
+      <c r="I39" s="2">
+        <v>283900</v>
+      </c>
+      <c r="J39" s="2">
+        <v>283500</v>
+      </c>
+      <c r="K39" s="2">
+        <v>283900</v>
+      </c>
+      <c r="L39" s="2">
+        <v>295500</v>
+      </c>
+      <c r="M39" s="2">
+        <v>295900</v>
+      </c>
+      <c r="N39" s="2">
+        <v>295500</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
+        <v>202105</v>
+      </c>
+      <c r="C40" s="2">
+        <v>351500</v>
+      </c>
+      <c r="D40" s="2">
+        <v>314100</v>
+      </c>
+      <c r="E40" s="2">
+        <v>315300</v>
+      </c>
+      <c r="F40" s="2">
+        <v>282900</v>
+      </c>
+      <c r="G40" s="2">
+        <v>282500</v>
+      </c>
+      <c r="H40" s="2">
+        <v>283900</v>
+      </c>
+      <c r="I40" s="2">
+        <v>283500</v>
+      </c>
+      <c r="J40" s="2">
+        <v>283900</v>
+      </c>
+      <c r="K40" s="2">
+        <v>295500</v>
+      </c>
+      <c r="L40" s="2">
+        <v>295900</v>
+      </c>
+      <c r="M40" s="2">
+        <v>295500</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
+        <v>202106</v>
+      </c>
+      <c r="C41" s="2">
+        <v>303500</v>
+      </c>
+      <c r="D41" s="2">
+        <v>285000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>282400</v>
+      </c>
+      <c r="F41" s="2">
+        <v>292000</v>
+      </c>
+      <c r="G41" s="2">
+        <v>283900</v>
+      </c>
+      <c r="H41" s="2">
+        <v>283500</v>
+      </c>
+      <c r="I41" s="2">
+        <v>283900</v>
+      </c>
+      <c r="J41" s="2">
+        <v>295500</v>
+      </c>
+      <c r="K41" s="2">
+        <v>295900</v>
+      </c>
+      <c r="L41" s="2">
+        <v>295500</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <v>202107</v>
+      </c>
+      <c r="C42" s="3">
+        <v>238339.79300000001</v>
+      </c>
+      <c r="D42" s="3">
+        <v>277176.69400000002</v>
+      </c>
+      <c r="E42" s="3">
+        <v>287107.37</v>
+      </c>
+      <c r="F42" s="3">
+        <v>293461.853</v>
+      </c>
+      <c r="G42" s="3">
+        <v>289196.37300000002</v>
+      </c>
+      <c r="H42" s="3">
+        <v>261118.38400000002</v>
+      </c>
+      <c r="I42" s="3">
+        <v>295500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>295900</v>
+      </c>
+      <c r="K42" s="3">
+        <v>295500</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <v>202108</v>
+      </c>
+      <c r="C43" s="3">
+        <v>313310.516</v>
+      </c>
+      <c r="D43" s="3">
+        <v>236727.50699999998</v>
+      </c>
+      <c r="E43" s="3">
+        <v>301164.283</v>
+      </c>
+      <c r="F43" s="3">
+        <v>289654.652</v>
+      </c>
+      <c r="G43" s="3">
+        <v>294140.66599999997</v>
+      </c>
+      <c r="H43" s="3">
+        <v>295500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>295900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>295500</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <v>202109</v>
+      </c>
+      <c r="C44" s="3">
+        <v>207687.05899999998</v>
+      </c>
+      <c r="D44" s="3">
+        <v>251453.37099999998</v>
+      </c>
+      <c r="E44" s="3">
+        <v>310260.51799999998</v>
+      </c>
+      <c r="F44" s="3">
+        <v>345145.43800000002</v>
+      </c>
+      <c r="G44" s="3">
+        <v>295500</v>
+      </c>
+      <c r="H44" s="3">
+        <v>295900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>295500</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <v>202110</v>
+      </c>
+      <c r="C45" s="3">
+        <v>246979.77500000002</v>
+      </c>
+      <c r="D45" s="3">
+        <v>313116.28599999996</v>
+      </c>
+      <c r="E45" s="3">
+        <v>342743.75989053224</v>
+      </c>
+      <c r="F45" s="3">
+        <v>295500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>295900</v>
+      </c>
+      <c r="H45" s="2">
+        <v>295500</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <v>202111</v>
+      </c>
+      <c r="C46" s="3">
+        <v>386293.40800000005</v>
+      </c>
+      <c r="D46" s="3">
+        <v>325829.2908905322</v>
+      </c>
+      <c r="E46" s="3">
+        <v>387700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>355900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>355500</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <v>202112</v>
+      </c>
+      <c r="C47" s="2">
+        <v>286429.2908905322</v>
+      </c>
+      <c r="D47" s="2">
+        <v>306000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>346400</v>
+      </c>
+      <c r="F47" s="2">
+        <v>317000</v>
+      </c>
+      <c r="G47" s="2">
+        <v>305988.88888888888</v>
+      </c>
+      <c r="H47" s="2">
+        <v>305588.88888888888</v>
+      </c>
+      <c r="I47" s="2">
+        <v>305988.88888888888</v>
+      </c>
+      <c r="J47" s="2">
+        <v>329338.88888888888</v>
+      </c>
+      <c r="K47" s="2">
+        <v>329738.88888888888</v>
+      </c>
+      <c r="L47" s="2">
+        <v>329338.88888888888</v>
+      </c>
+      <c r="M47" s="2">
+        <v>329738.88888888888</v>
+      </c>
+      <c r="N47" s="2">
+        <v>329338.88888888888</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <v>202201</v>
+      </c>
+      <c r="C48" s="2">
+        <v>347600</v>
+      </c>
+      <c r="D48" s="2">
+        <v>336600</v>
+      </c>
+      <c r="E48" s="2">
+        <v>314600</v>
+      </c>
+      <c r="F48" s="2">
+        <v>305988.88888888888</v>
+      </c>
+      <c r="G48" s="2">
+        <v>305588.88888888888</v>
+      </c>
+      <c r="H48" s="2">
+        <v>305988.88888888888</v>
+      </c>
+      <c r="I48" s="2">
+        <v>329338.88888888888</v>
+      </c>
+      <c r="J48" s="2">
+        <v>329738.88888888888</v>
+      </c>
+      <c r="K48" s="2">
+        <v>329338.88888888888</v>
+      </c>
+      <c r="L48" s="2">
+        <v>329738.88888888888</v>
+      </c>
+      <c r="M48" s="2">
+        <v>329338.88888888888</v>
+      </c>
+      <c r="N48" s="2">
+        <v>329738.88888888888</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <v>202202</v>
+      </c>
+      <c r="C49" s="2">
+        <v>336852</v>
+      </c>
+      <c r="D49" s="2">
+        <v>305737</v>
+      </c>
+      <c r="E49" s="2">
+        <v>305988.88888888888</v>
+      </c>
+      <c r="F49" s="2">
+        <v>305588.88888888888</v>
+      </c>
+      <c r="G49" s="2">
+        <v>305988.88888888888</v>
+      </c>
+      <c r="H49" s="2">
+        <v>329338.88888888888</v>
+      </c>
+      <c r="I49" s="2">
+        <v>329738.88888888888</v>
+      </c>
+      <c r="J49" s="2">
+        <v>329338.88888888888</v>
+      </c>
+      <c r="K49" s="2">
+        <v>329738.88888888888</v>
+      </c>
+      <c r="L49" s="2">
+        <v>329338.88888888888</v>
+      </c>
+      <c r="M49" s="2">
+        <v>329738.88888888888</v>
+      </c>
+      <c r="N49" s="2">
+        <v>434347.22222222225</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <v>202203</v>
+      </c>
+      <c r="C50" s="2">
+        <v>336537</v>
+      </c>
+      <c r="D50" s="2">
+        <v>337322.22222222225</v>
+      </c>
+      <c r="E50" s="2">
+        <v>305792.22222222225</v>
+      </c>
+      <c r="F50" s="2">
+        <v>311191.22222222225</v>
+      </c>
+      <c r="G50" s="2">
+        <v>329338.88888888888</v>
+      </c>
+      <c r="H50" s="2">
+        <v>329738.88888888888</v>
+      </c>
+      <c r="I50" s="2">
+        <v>329338.88888888888</v>
+      </c>
+      <c r="J50" s="2">
+        <v>329738.88888888888</v>
+      </c>
+      <c r="K50" s="2">
+        <v>329338.88888888888</v>
+      </c>
+      <c r="L50" s="2">
+        <v>329738.88888888888</v>
+      </c>
+      <c r="M50" s="2">
+        <v>434347.22222222213</v>
+      </c>
+      <c r="N50" s="2">
+        <v>434347.22222222225</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>